--- a/Data/PUPCYCLE_Reads_Stats.xlsx
+++ b/Data/PUPCYCLE_Reads_Stats.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_51B13941E55AE5591AD677A45C2330BC0583BF74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75599062-EB44-3D40-A712-06B99D1C2AFD}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_51B13941E55AE5591AD677A45C2330BC0583BF74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4038FD05-F106-C943-B391-BCE73146B57C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cubitainers" sheetId="1" r:id="rId1"/>
+    <sheet name="Incubation" sheetId="1" r:id="rId1"/>
     <sheet name="Stations" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cubitainers!$A$1:$AD$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Incubation!$A$1:$AD$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Sample ID</t>
   </si>
@@ -57,24 +57,6 @@
     <t>% Reads Taxonomically Annotated (MFT)</t>
   </si>
   <si>
-    <t># Reads PFAM Annotated (MFT)</t>
-  </si>
-  <si>
-    <t>% Reads PFAM Annotated (MFT)</t>
-  </si>
-  <si>
-    <t># Reads KO Annotated (Eggnog)</t>
-  </si>
-  <si>
-    <t>% Reads KO Annotated (Eggnog)</t>
-  </si>
-  <si>
-    <t># Reads KEGG Pathway Annotated (Eggnog)</t>
-  </si>
-  <si>
-    <t>% Reads KEGG Pathway Annotated (Eggnog)</t>
-  </si>
-  <si>
     <t>Q13</t>
   </si>
   <si>
@@ -91,15 +73,6 @@
   </si>
   <si>
     <t>Q24</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>SD</t>
   </si>
   <si>
     <t>1-1A</t>
@@ -370,10 +343,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -579,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -601,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -627,24 +596,12 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -662,19 +619,19 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C2" s="16">
         <v>7</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6">
         <v>25151963</v>
@@ -693,45 +650,30 @@
         <f t="shared" ref="J2:J7" si="1">I2/F2</f>
         <v>0.33840619119867504</v>
       </c>
-      <c r="K2" s="8">
-        <v>7007760</v>
-      </c>
-      <c r="L2" s="10">
-        <f t="shared" ref="L2:L7" si="2">K2/F2</f>
-        <v>0.27861682207468258</v>
-      </c>
-      <c r="M2" s="8">
-        <v>5056635</v>
-      </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2:N7" si="3">M2/F2</f>
-        <v>0.20104335395213488</v>
-      </c>
-      <c r="O2" s="8">
-        <v>4125468</v>
-      </c>
-      <c r="P2" s="9">
-        <f t="shared" ref="P2:P7" si="4">O2/F2</f>
-        <v>0.16402171075076724</v>
-      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="9"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="16">
         <v>7</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6">
         <v>20214821</v>
@@ -750,45 +692,30 @@
         <f t="shared" si="1"/>
         <v>0.16959150912095636</v>
       </c>
-      <c r="K3" s="8">
-        <v>2960021</v>
-      </c>
-      <c r="L3" s="10">
-        <f t="shared" si="2"/>
-        <v>0.14642825677259275</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2459465</v>
-      </c>
-      <c r="N3" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12166642484739291</v>
-      </c>
-      <c r="O3" s="8">
-        <v>1927974</v>
-      </c>
-      <c r="P3" s="9">
-        <f t="shared" si="4"/>
-        <v>9.537428008885164E-2</v>
-      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16">
         <v>7</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6">
         <v>33216927</v>
@@ -807,45 +734,30 @@
         <f t="shared" si="1"/>
         <v>0.28229766709003518</v>
       </c>
-      <c r="K4" s="8">
-        <v>7116180</v>
-      </c>
-      <c r="L4" s="10">
-        <f t="shared" si="2"/>
-        <v>0.21423354424086249</v>
-      </c>
-      <c r="M4" s="8">
-        <v>4758370</v>
-      </c>
-      <c r="N4" s="9">
-        <f t="shared" si="3"/>
-        <v>0.14325136097026675</v>
-      </c>
-      <c r="O4" s="8">
-        <v>3746947</v>
-      </c>
-      <c r="P4" s="9">
-        <f t="shared" si="4"/>
-        <v>0.11280233719392525</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6">
         <v>14592655</v>
@@ -864,45 +776,30 @@
         <f t="shared" si="1"/>
         <v>0.15768727486533465</v>
       </c>
-      <c r="K5" s="8">
-        <v>2186579</v>
-      </c>
-      <c r="L5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.14984106730406496</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1955784</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="3"/>
-        <v>0.13402523392761634</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1606425</v>
-      </c>
-      <c r="P5" s="9">
-        <f t="shared" si="4"/>
-        <v>0.11008449113612294</v>
-      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="16">
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6">
         <v>23197162</v>
@@ -921,45 +818,30 @@
         <f t="shared" si="1"/>
         <v>0.52791802721384629</v>
       </c>
-      <c r="K6" s="8">
-        <v>10643559</v>
-      </c>
-      <c r="L6" s="10">
-        <f t="shared" si="2"/>
-        <v>0.45883022242117377</v>
-      </c>
-      <c r="M6" s="8">
-        <v>8242904</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" si="3"/>
-        <v>0.35534105422033951</v>
-      </c>
-      <c r="O6" s="8">
-        <v>6731928</v>
-      </c>
-      <c r="P6" s="9">
-        <f t="shared" si="4"/>
-        <v>0.29020481039878931</v>
-      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C7" s="16">
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6">
         <v>21995695</v>
@@ -978,27 +860,12 @@
         <f t="shared" si="1"/>
         <v>0.35909263153539817</v>
       </c>
-      <c r="K7" s="8">
-        <v>7085529</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" si="2"/>
-        <v>0.32213253548023829</v>
-      </c>
-      <c r="M7" s="8">
-        <v>6439848</v>
-      </c>
-      <c r="N7" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29277765490019753</v>
-      </c>
-      <c r="O7" s="8">
-        <v>4999561</v>
-      </c>
-      <c r="P7" s="9">
-        <f t="shared" si="4"/>
-        <v>0.22729725066655088</v>
-      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="12"/>
     </row>
@@ -17421,7 +17288,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -17438,10 +17305,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -17481,13 +17348,13 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14">
         <v>20919052</v>
@@ -17509,13 +17376,13 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14">
         <v>20605487</v>
@@ -17537,13 +17404,13 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" s="14">
         <v>20370660</v>
@@ -17565,13 +17432,13 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14">
         <v>33411917</v>
@@ -17593,13 +17460,13 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6" s="14">
         <v>20451261</v>
@@ -17621,13 +17488,13 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D7" s="14">
         <v>31854033</v>
@@ -17649,13 +17516,13 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D8" s="14">
         <v>23102631</v>
@@ -17677,13 +17544,13 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" s="14">
         <v>22184188</v>
@@ -17705,13 +17572,13 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D10" s="14">
         <v>31244147</v>
@@ -17733,13 +17600,13 @@
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14">
         <v>17121856</v>
@@ -17761,13 +17628,13 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12" s="14">
         <v>21784053</v>
@@ -17789,13 +17656,13 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D13" s="14">
         <v>24551450</v>
@@ -17817,13 +17684,13 @@
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14">
         <v>20633218</v>
@@ -17845,13 +17712,13 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" s="14">
         <v>13037287</v>
@@ -17873,13 +17740,13 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D16" s="14">
         <v>18605896</v>
@@ -17901,13 +17768,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14">
         <v>20757774</v>
@@ -17929,13 +17796,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5">
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18" s="14">
         <v>22992753</v>
@@ -17957,13 +17824,13 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D19" s="14">
         <v>13046360</v>
@@ -17985,13 +17852,13 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D20" s="14">
         <v>22985192</v>
@@ -18013,13 +17880,13 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D21" s="14">
         <v>17752669</v>
@@ -18041,13 +17908,13 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D22" s="14">
         <v>28417725</v>
@@ -18069,13 +17936,13 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D23" s="14">
         <v>18902138</v>
@@ -18097,13 +17964,13 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5">
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D24" s="14">
         <v>18139851</v>
@@ -18125,13 +17992,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B25" s="5">
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D25" s="14">
         <v>22252339</v>
@@ -18153,13 +18020,13 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D26" s="14">
         <v>22274606</v>
@@ -18181,13 +18048,13 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B27" s="5">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D27" s="14">
         <v>18592697</v>
@@ -18209,13 +18076,13 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D28" s="14">
         <v>19985953</v>
@@ -18237,13 +18104,13 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D29" s="14">
         <v>14932416</v>
@@ -18265,13 +18132,13 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D30" s="14">
         <v>19818129</v>
@@ -18297,85 +18164,34 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6">
-        <f t="shared" ref="D32:E32" si="2">SUM(D2:D30)</f>
-        <v>620727738</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="2"/>
-        <v>451194590</v>
-      </c>
-      <c r="F32" s="10">
-        <f>E32/D32</f>
-        <v>0.72688001901406896</v>
-      </c>
-      <c r="G32" s="6">
-        <f>SUM(G2:G30)</f>
-        <v>226827198</v>
-      </c>
-      <c r="H32" s="10">
-        <f>G32/D32</f>
-        <v>0.3654213983264914</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6">
-        <f t="shared" ref="D33:H33" si="3">AVERAGE(D2:D30)</f>
-        <v>21404404.758620691</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="3"/>
-        <v>15558434.137931034</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="3"/>
-        <v>0.72282303130470649</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="3"/>
-        <v>7821627.5172413792</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="3"/>
-        <v>0.36360443794827668</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6">
-        <f t="shared" ref="D34:H34" si="4">STDEV(D2:D30)</f>
-        <v>4905885.6981662707</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="4"/>
-        <v>4678756.3678771295</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="4"/>
-        <v>0.13184389277015146</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="4"/>
-        <v>3294755.8537560948</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="4"/>
-        <v>0.12979844312864913</v>
-      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
